--- a/DogecoinTimeline/Timelines/Dogecoin Event Log/Dogecoin_Pr_EventLog.xlsx
+++ b/DogecoinTimeline/Timelines/Dogecoin Event Log/Dogecoin_Pr_EventLog.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="236">
   <si>
     <t>Start Date</t>
   </si>
@@ -214,7 +214,7 @@
     <t>Dogecoin Qt 1.2 Released. </t>
   </si>
   <si>
-    <t>http://DogecoinTimeline.com/DTimages/DogecoinUpdate.jpg</t>
+    <t>http://DogecoinTimeline.com/DTimages/DogecoinUpdate.png</t>
   </si>
   <si>
     <t>Cryptsy, the largest exchange at the time, adds Dogecoin to its BTC market. </t>
@@ -388,7 +388,7 @@
     <t>First Halving (maximum block reward reduced to 500,000/block, down from 1M/block). </t>
   </si>
   <si>
-    <t>http://DogecoinTimeline.com/DTimages/DogecoinHalving.jpg</t>
+    <t>http://DogecoinTimeline.com/DTimages/DogecoinHalving.png</t>
   </si>
   <si>
     <t>Fork in the road. </t>
@@ -647,6 +647,18 @@
     <t>Rollout of attempt to crowd source a new foundation. </t>
   </si>
   <si>
+    <t>V8 Super Doge Car</t>
+  </si>
+  <si>
+    <t>Over 6 million Doge was raised for the Super Doge V8. </t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/main_Dogecoin-V8-Supercar-Erebus1.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://fulvio.jovianprojects.com.au/dogecar/"&gt;Original Post&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Dogevault hacked. 280 Million Doge stolen, 120 Million recovered. </t>
   </si>
   <si>
@@ -698,6 +710,18 @@
     <t>2.6 million Doge was raised to support the Doge mining rate for an 13MH/s GAW miner. All Doge mined will go towards the Doge developers.</t>
   </si>
   <si>
+    <t>Doge 4 CESHEO</t>
+  </si>
+  <si>
+    <t>3 Million Doge was rasied for CESHEO, an organisation with three free schools in Cambodia, it provides a free education to more than 750 Cambodian children who otherwise would not get an education.</t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/DSC_0297-small.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.justgohelp.com</t>
+  </si>
+  <si>
     <t>Welcome to HitBTC</t>
   </si>
   <si>
@@ -710,6 +734,57 @@
     <t>HitBtc.com</t>
   </si>
   <si>
+    <t>Diecast Appreciation</t>
+  </si>
+  <si>
+    <t> Shibes helped Denis, or /u/unicorn_butt_sex, win Lionel Racing's contest on Facebook. . </t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.reddit.com/r/dogecoin/comments/28w1s2/hey_shibes_i_want_to_say_thank_you_also_who_wants/"&gt;His Thank You!&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Doge 4 esports</t>
+  </si>
+  <si>
+    <t>Organized by CoinPlay.io , 10 million Dogecoins was Raised for Doge4eSports, which gives highschoolers to opportunity to compete with each other for Doge! </t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/Doge4eSports-650x300.png</t>
+  </si>
+  <si>
+    <t>http://www.doge4esports.com/</t>
+  </si>
+  <si>
+    <t>&lt;a href="coinplay.io"&gt;Check out CoinPlay&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Microlending with Doge</t>
+  </si>
+  <si>
+    <t>Shibes voted for the Proposal - Use cryptocurrency for organised sustainable microlending. Cryptocurrency is at a stage when it transcends commodity status. It finished 3rd and advances to the next stage.</t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/YouthCompetition.png</t>
+  </si>
+  <si>
+    <t>https://www.youth-competition.org</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.youth-competition.org/groups/entrepreneurship-competition-2013/contests/2/1437"&gt;See Contest&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Completed 10mil Fundraiser for Dogechain.info </t>
+  </si>
+  <si>
+    <t>The Dogecoin Fundraiser started on Feb 14th 2014 is completed!!! Shibes raised 10 million Dogecoin for the popular Dogecoin block explorer, Dogechain.info. </t>
+  </si>
+  <si>
+    <t>http://DogecoinTimeline.com/DTimages/UNik5UI.png</t>
+  </si>
+  <si>
+    <t>&lt;a href="Dogechain.info" &gt;Explore the dogecoin block chain&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Dogeparty (XDP) is Live</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
   </si>
   <si>
     <t>&lt;a href="https://twitter.com/theDogeparty" &gt;Dogeparty Twitter&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Dogecoin Qt 1.8 Released (Aux Pow enabled). </t>
   </si>
 </sst>
 </file>
@@ -728,8 +806,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy h:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.###############"/>
     <numFmt numFmtId="168" formatCode="#,##0.###############"/>
     <numFmt numFmtId="169" formatCode="m/d/yyyy h:mm:ss;@"/>
@@ -816,13 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAE5F3"/>
+        <fgColor rgb="FFF3F3F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFDAE5F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,11 +978,11 @@
     <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="165" borderId="0" applyFont="1" fontId="2" applyNumberFormat="1" applyFill="1">
+    <xf applyAlignment="1" fillId="4" xfId="0" numFmtId="165" borderId="0" fontId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="166" borderId="0" applyFont="1" fontId="2" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" fillId="5" xfId="0" numFmtId="166" borderId="0" fontId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" fillId="6" xfId="0" numFmtId="167" borderId="0" applyFont="1" fontId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="center" wrapText="1"/>
@@ -994,10 +1072,10 @@
       </c>
     </row>
     <row r="2">
-      <c s="4" r="A2">
-        <v>36892</v>
-      </c>
-      <c s="4" r="B2"/>
+      <c s="2" r="A2">
+        <v>41579</v>
+      </c>
+      <c s="5" r="B2"/>
       <c t="s" s="3" r="C2">
         <v>10</v>
       </c>
@@ -1040,7 +1118,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H3"/>
-      <c s="10" r="I3"/>
+      <c s="3" r="I3"/>
     </row>
     <row r="4">
       <c s="8" r="A4">
@@ -1063,7 +1141,7 @@
         <v>14</v>
       </c>
       <c s="15" r="H4"/>
-      <c s="15" r="I4"/>
+      <c s="3" r="I4"/>
       <c s="15" r="J4"/>
     </row>
     <row r="5">
@@ -1087,7 +1165,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H5"/>
-      <c s="10" r="I5"/>
+      <c s="3" r="I5"/>
     </row>
     <row r="6">
       <c s="8" r="A6">
@@ -1110,7 +1188,7 @@
         <v>14</v>
       </c>
       <c s="15" r="H6"/>
-      <c s="15" r="I6"/>
+      <c s="3" r="I6"/>
       <c s="15" r="J6"/>
     </row>
     <row r="7">
@@ -1134,7 +1212,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H7"/>
-      <c s="10" r="I7"/>
+      <c s="3" r="I7"/>
     </row>
     <row r="8">
       <c s="13" r="A8">
@@ -1157,7 +1235,7 @@
         <v>30</v>
       </c>
       <c s="1" r="H8"/>
-      <c s="1" r="I8"/>
+      <c s="3" r="I8"/>
     </row>
     <row r="9">
       <c s="8" r="A9">
@@ -1180,7 +1258,7 @@
         <v>14</v>
       </c>
       <c s="15" r="H9"/>
-      <c s="15" r="I9"/>
+      <c s="3" r="I9"/>
       <c s="15" r="J9"/>
     </row>
     <row r="10">
@@ -1204,7 +1282,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H10"/>
-      <c s="10" r="I10"/>
+      <c s="3" r="I10"/>
     </row>
     <row r="11">
       <c s="2" r="A11">
@@ -1227,7 +1305,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H11"/>
-      <c s="10" r="I11"/>
+      <c s="3" r="I11"/>
     </row>
     <row r="12">
       <c s="2" r="A12">
@@ -1250,7 +1328,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H12"/>
-      <c s="10" r="I12"/>
+      <c s="3" r="I12"/>
     </row>
     <row r="13">
       <c s="2" r="A13">
@@ -1273,7 +1351,7 @@
         <v>41</v>
       </c>
       <c s="10" r="H13"/>
-      <c s="10" r="I13"/>
+      <c s="3" r="I13"/>
     </row>
     <row r="14">
       <c s="2" r="A14">
@@ -1296,7 +1374,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H14"/>
-      <c s="10" r="I14"/>
+      <c s="3" r="I14"/>
     </row>
     <row r="15">
       <c s="2" r="A15">
@@ -1319,7 +1397,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H15"/>
-      <c s="10" r="I15"/>
+      <c s="3" r="I15"/>
     </row>
     <row r="16">
       <c s="2" r="A16">
@@ -1342,7 +1420,7 @@
         <v>49</v>
       </c>
       <c s="10" r="H16"/>
-      <c s="10" r="I16"/>
+      <c s="3" r="I16"/>
     </row>
     <row r="17">
       <c s="2" r="A17">
@@ -1365,7 +1443,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H17"/>
-      <c s="10" r="I17"/>
+      <c s="3" r="I17"/>
     </row>
     <row r="18">
       <c s="2" r="A18">
@@ -1388,7 +1466,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H18"/>
-      <c s="10" r="I18"/>
+      <c s="3" r="I18"/>
     </row>
     <row r="19">
       <c s="2" r="A19">
@@ -1411,7 +1489,7 @@
         <v>56</v>
       </c>
       <c s="10" r="H19"/>
-      <c s="10" r="I19"/>
+      <c s="3" r="I19"/>
     </row>
     <row r="20">
       <c s="2" r="A20">
@@ -1434,7 +1512,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H20"/>
-      <c s="10" r="I20"/>
+      <c s="3" r="I20"/>
     </row>
     <row r="21">
       <c s="2" r="A21">
@@ -1457,7 +1535,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H21"/>
-      <c s="10" r="I21"/>
+      <c s="3" r="I21"/>
     </row>
     <row r="22">
       <c s="2" r="A22">
@@ -1480,7 +1558,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H22"/>
-      <c s="10" r="I22"/>
+      <c s="3" r="I22"/>
     </row>
     <row r="23">
       <c s="2" r="A23">
@@ -1503,7 +1581,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H23"/>
-      <c s="10" r="I23"/>
+      <c s="3" r="I23"/>
     </row>
     <row r="24">
       <c s="2" r="A24">
@@ -1526,7 +1604,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H24"/>
-      <c s="10" r="I24"/>
+      <c s="3" r="I24"/>
     </row>
     <row r="25">
       <c s="2" r="A25">
@@ -1549,7 +1627,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H25"/>
-      <c s="10" r="I25"/>
+      <c s="3" r="I25"/>
     </row>
     <row r="26">
       <c s="2" r="A26">
@@ -1572,7 +1650,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H26"/>
-      <c s="10" r="I26"/>
+      <c s="3" r="I26"/>
     </row>
     <row r="27">
       <c s="2" r="A27">
@@ -1595,7 +1673,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H27"/>
-      <c s="10" r="I27"/>
+      <c s="3" r="I27"/>
     </row>
     <row r="28">
       <c s="2" r="A28">
@@ -1618,7 +1696,7 @@
         <v>68</v>
       </c>
       <c s="10" r="H28"/>
-      <c s="10" r="I28"/>
+      <c s="3" r="I28"/>
     </row>
     <row r="29">
       <c s="2" r="A29">
@@ -1641,7 +1719,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H29"/>
-      <c s="10" r="I29"/>
+      <c s="3" r="I29"/>
     </row>
     <row r="30">
       <c s="2" r="A30">
@@ -1664,7 +1742,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H30"/>
-      <c s="10" r="I30"/>
+      <c s="3" r="I30"/>
     </row>
     <row r="31">
       <c s="2" r="A31">
@@ -1687,7 +1765,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H31"/>
-      <c s="10" r="I31"/>
+      <c s="3" r="I31"/>
     </row>
     <row r="32">
       <c s="2" r="A32">
@@ -1712,7 +1790,7 @@
         <v>74</v>
       </c>
       <c s="10" r="H32"/>
-      <c s="10" r="I32"/>
+      <c s="3" r="I32"/>
     </row>
     <row r="33">
       <c s="2" r="A33">
@@ -1735,7 +1813,7 @@
         <v>78</v>
       </c>
       <c s="10" r="H33"/>
-      <c s="10" r="I33"/>
+      <c s="3" r="I33"/>
     </row>
     <row r="34">
       <c s="2" r="A34">
@@ -1758,7 +1836,7 @@
         <v>78</v>
       </c>
       <c s="10" r="H34"/>
-      <c s="10" r="I34"/>
+      <c s="3" r="I34"/>
     </row>
     <row r="35">
       <c s="2" r="A35">
@@ -1781,7 +1859,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H35"/>
-      <c s="10" r="I35"/>
+      <c s="3" r="I35"/>
     </row>
     <row r="36">
       <c s="2" r="A36">
@@ -1804,7 +1882,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H36"/>
-      <c s="10" r="I36"/>
+      <c s="3" r="I36"/>
     </row>
     <row r="37">
       <c s="2" r="A37">
@@ -1827,7 +1905,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H37"/>
-      <c s="10" r="I37"/>
+      <c s="3" r="I37"/>
     </row>
     <row r="38">
       <c s="2" r="A38">
@@ -1850,13 +1928,13 @@
         <v>14</v>
       </c>
       <c s="10" r="H38"/>
-      <c s="10" r="I38"/>
+      <c s="3" r="I38"/>
     </row>
     <row r="39">
-      <c s="5" r="A39">
+      <c s="4" r="A39">
         <v>41673</v>
       </c>
-      <c s="5" r="B39">
+      <c s="4" r="B39">
         <v>41698</v>
       </c>
       <c t="s" s="12" r="C39">
@@ -1875,7 +1953,7 @@
         <v>68</v>
       </c>
       <c s="10" r="H39"/>
-      <c s="10" r="I39"/>
+      <c s="3" r="I39"/>
     </row>
     <row r="40">
       <c s="2" r="A40">
@@ -1898,7 +1976,7 @@
         <v>90</v>
       </c>
       <c s="10" r="H40"/>
-      <c s="10" r="I40"/>
+      <c s="3" r="I40"/>
     </row>
     <row r="41">
       <c s="2" r="A41">
@@ -1921,7 +1999,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H41"/>
-      <c s="10" r="I41"/>
+      <c s="3" r="I41"/>
     </row>
     <row r="42">
       <c s="2" r="A42">
@@ -1944,7 +2022,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H42"/>
-      <c s="10" r="I42"/>
+      <c s="3" r="I42"/>
     </row>
     <row r="43">
       <c s="2" r="A43">
@@ -1967,7 +2045,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H43"/>
-      <c s="10" r="I43"/>
+      <c s="3" r="I43"/>
     </row>
     <row r="44">
       <c s="2" r="A44">
@@ -1990,7 +2068,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H44"/>
-      <c s="10" r="I44"/>
+      <c s="3" r="I44"/>
     </row>
     <row r="45">
       <c s="2" r="A45">
@@ -2013,7 +2091,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H45"/>
-      <c s="10" r="I45"/>
+      <c s="3" r="I45"/>
     </row>
     <row r="46">
       <c s="2" r="A46">
@@ -2036,7 +2114,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H46"/>
-      <c s="10" r="I46"/>
+      <c s="3" r="I46"/>
     </row>
     <row r="47">
       <c s="2" r="A47">
@@ -2059,7 +2137,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H47"/>
-      <c s="10" r="I47"/>
+      <c s="3" r="I47"/>
     </row>
     <row r="48">
       <c s="2" r="A48">
@@ -2082,7 +2160,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H48"/>
-      <c s="10" r="I48"/>
+      <c s="3" r="I48"/>
     </row>
     <row r="49">
       <c s="2" r="A49">
@@ -2105,137 +2183,127 @@
         <v>14</v>
       </c>
       <c s="10" r="H49"/>
-      <c s="10" r="I49"/>
+      <c s="3" r="I49"/>
     </row>
     <row r="50">
       <c s="2" r="A50">
-        <v>41687</v>
+        <v>41684</v>
       </c>
       <c s="2" r="B50"/>
-      <c t="s" s="10" r="C50">
-        <v>102</v>
-      </c>
-      <c t="s" s="10" r="D50">
-        <v>103</v>
-      </c>
-      <c t="s" s="10" r="E50">
-        <v>18</v>
-      </c>
-      <c t="s" s="10" r="F50">
-        <v>13</v>
-      </c>
-      <c t="s" s="10" r="G50">
-        <v>14</v>
-      </c>
+      <c s="10" r="C50"/>
+      <c s="10" r="D50"/>
+      <c s="10" r="E50"/>
+      <c s="10" r="F50"/>
+      <c s="10" r="G50"/>
       <c s="10" r="H50"/>
-      <c s="10" r="I50"/>
+      <c s="3" r="I50"/>
     </row>
     <row r="51">
       <c s="2" r="A51">
-        <v>41690</v>
-      </c>
+        <v>41687</v>
+      </c>
+      <c s="2" r="B51"/>
       <c t="s" s="10" r="C51">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" s="10" r="D51">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" s="10" r="E51">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F51">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G51">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c s="10" r="H51"/>
-      <c s="10" r="I51"/>
+      <c s="3" r="I51"/>
     </row>
     <row r="52">
       <c s="2" r="A52">
-        <v>41701</v>
-      </c>
-      <c s="2" r="B52"/>
+        <v>41690</v>
+      </c>
       <c t="s" s="10" r="C52">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c t="s" s="10" r="D52">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" s="10" r="E52">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F52">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c t="s" s="10" r="G52">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c s="10" r="H52"/>
-      <c s="10" r="I52"/>
+      <c s="3" r="I52"/>
     </row>
     <row r="53">
       <c s="2" r="A53">
         <v>41701</v>
       </c>
-      <c s="2" r="B53">
-        <v>41714</v>
-      </c>
+      <c s="2" r="B53"/>
       <c t="s" s="10" r="C53">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D53">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" s="10" r="E53">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F53">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G53">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c s="10" r="H53"/>
-      <c s="10" r="I53"/>
+      <c s="3" r="I53"/>
     </row>
     <row r="54">
       <c s="2" r="A54">
-        <v>41702</v>
-      </c>
-      <c s="2" r="B54"/>
+        <v>41701</v>
+      </c>
+      <c s="2" r="B54">
+        <v>41714</v>
+      </c>
       <c t="s" s="10" r="C54">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c t="s" s="10" r="D54">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" s="10" r="E54">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F54">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c t="s" s="10" r="G54">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c s="10" r="H54"/>
-      <c s="10" r="I54"/>
+      <c s="3" r="I54"/>
     </row>
     <row r="55">
       <c s="2" r="A55">
-        <v>41710</v>
+        <v>41702</v>
       </c>
       <c s="2" r="B55"/>
       <c t="s" s="10" r="C55">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D55">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" s="10" r="E55">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c t="s" s="10" r="F55">
         <v>13</v>
@@ -2244,21 +2312,21 @@
         <v>14</v>
       </c>
       <c s="10" r="H55"/>
-      <c s="10" r="I55"/>
+      <c s="3" r="I55"/>
     </row>
     <row r="56">
       <c s="2" r="A56">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c s="2" r="B56"/>
       <c t="s" s="10" r="C56">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c t="s" s="10" r="D56">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" s="10" r="E56">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c t="s" s="10" r="F56">
         <v>13</v>
@@ -2267,18 +2335,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H56"/>
-      <c s="10" r="I56"/>
+      <c s="3" r="I56"/>
     </row>
     <row r="57">
       <c s="2" r="A57">
-        <v>41715</v>
+        <v>41711</v>
       </c>
       <c s="2" r="B57"/>
       <c t="s" s="10" r="C57">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D57">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" s="10" r="E57">
         <v>18</v>
@@ -2290,7 +2358,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H57"/>
-      <c s="10" r="I57"/>
+      <c s="3" r="I57"/>
     </row>
     <row r="58">
       <c s="2" r="A58">
@@ -2298,10 +2366,10 @@
       </c>
       <c s="2" r="B58"/>
       <c t="s" s="10" r="C58">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D58">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" s="10" r="E58">
         <v>18</v>
@@ -2313,64 +2381,64 @@
         <v>14</v>
       </c>
       <c s="10" r="H58"/>
-      <c s="10" r="I58"/>
+      <c s="3" r="I58"/>
     </row>
     <row r="59">
       <c s="2" r="A59">
-        <v>41714</v>
+        <v>41715</v>
       </c>
       <c s="2" r="B59"/>
       <c t="s" s="10" r="C59">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" s="10" r="D59">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" s="10" r="E59">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F59">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G59">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c s="10" r="H59"/>
-      <c s="10" r="I59"/>
+      <c s="3" r="I59"/>
     </row>
     <row r="60">
       <c s="2" r="A60">
-        <v>41715</v>
+        <v>41714</v>
       </c>
       <c s="2" r="B60"/>
       <c t="s" s="10" r="C60">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c t="s" s="10" r="D60">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" s="10" r="E60">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F60">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c t="s" s="10" r="G60">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c s="10" r="H60"/>
-      <c s="10" r="I60"/>
+      <c s="3" r="I60"/>
     </row>
     <row r="61">
       <c s="2" r="A61">
-        <v>41716</v>
+        <v>41715</v>
       </c>
       <c s="2" r="B61"/>
       <c t="s" s="10" r="C61">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D61">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" s="10" r="E61">
         <v>18</v>
@@ -2382,7 +2450,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H61"/>
-      <c s="10" r="I61"/>
+      <c s="3" r="I61"/>
     </row>
     <row r="62">
       <c s="2" r="A62">
@@ -2393,7 +2461,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D62">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" s="10" r="E62">
         <v>18</v>
@@ -2405,18 +2473,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H62"/>
-      <c s="10" r="I62"/>
+      <c s="3" r="I62"/>
     </row>
     <row r="63">
       <c s="2" r="A63">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c s="2" r="B63"/>
       <c t="s" s="10" r="C63">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D63">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" s="10" r="E63">
         <v>18</v>
@@ -2428,20 +2496,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H63"/>
-      <c s="10" r="I63"/>
+      <c s="3" r="I63"/>
     </row>
     <row r="64">
       <c s="2" r="A64">
-        <v>41720</v>
-      </c>
-      <c s="2" r="B64">
-        <v>41722</v>
-      </c>
+        <v>41717</v>
+      </c>
+      <c s="2" r="B64"/>
       <c t="s" s="10" r="C64">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D64">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" s="10" r="E64">
         <v>18</v>
@@ -2453,18 +2519,20 @@
         <v>14</v>
       </c>
       <c s="10" r="H64"/>
-      <c s="10" r="I64"/>
+      <c s="3" r="I64"/>
     </row>
     <row r="65">
       <c s="2" r="A65">
+        <v>41720</v>
+      </c>
+      <c s="2" r="B65">
         <v>41722</v>
       </c>
-      <c s="2" r="B65"/>
       <c t="s" s="10" r="C65">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c t="s" s="10" r="D65">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" s="10" r="E65">
         <v>18</v>
@@ -2476,18 +2544,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H65"/>
-      <c s="10" r="I65"/>
+      <c s="3" r="I65"/>
     </row>
     <row r="66">
       <c s="2" r="A66">
-        <v>41723</v>
+        <v>41722</v>
       </c>
       <c s="2" r="B66"/>
       <c t="s" s="10" r="C66">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D66">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" s="10" r="E66">
         <v>18</v>
@@ -2496,21 +2564,21 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G66">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c s="10" r="H66"/>
-      <c s="10" r="I66"/>
+      <c s="3" r="I66"/>
     </row>
     <row r="67">
       <c s="2" r="A67">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c s="2" r="B67"/>
       <c t="s" s="10" r="C67">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c t="s" s="10" r="D67">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" s="10" r="E67">
         <v>18</v>
@@ -2519,10 +2587,10 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G67">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c s="10" r="H67"/>
-      <c s="10" r="I67"/>
+      <c s="3" r="I67"/>
     </row>
     <row r="68">
       <c s="2" r="A68">
@@ -2533,7 +2601,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D68">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" s="10" r="E68">
         <v>18</v>
@@ -2545,89 +2613,89 @@
         <v>14</v>
       </c>
       <c s="10" r="H68"/>
-      <c s="10" r="I68"/>
+      <c s="3" r="I68"/>
     </row>
     <row r="69">
       <c s="2" r="A69">
+        <v>41725</v>
+      </c>
+      <c s="2" r="B69"/>
+      <c t="s" s="10" r="C69">
+        <v>33</v>
+      </c>
+      <c t="s" s="10" r="D69">
+        <v>131</v>
+      </c>
+      <c t="s" s="10" r="E69">
+        <v>18</v>
+      </c>
+      <c t="s" s="10" r="F69">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G69">
+        <v>14</v>
+      </c>
+      <c s="10" r="H69"/>
+      <c s="3" r="I69"/>
+    </row>
+    <row r="70">
+      <c s="2" r="A70">
         <v>41728</v>
       </c>
-      <c s="2" r="B69">
+      <c s="2" r="B70">
         <v>41764</v>
       </c>
-      <c t="s" s="10" r="C69">
+      <c t="s" s="10" r="C70">
         <v>132</v>
       </c>
-      <c t="s" s="10" r="D69">
+      <c t="s" s="10" r="D70">
         <v>133</v>
       </c>
-      <c t="s" s="10" r="E69">
-        <v>18</v>
-      </c>
-      <c t="s" s="10" r="F69">
-        <v>13</v>
-      </c>
-      <c t="s" s="10" r="G69">
+      <c t="s" s="10" r="E70">
+        <v>18</v>
+      </c>
+      <c t="s" s="10" r="F70">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G70">
         <v>134</v>
       </c>
-      <c s="10" r="H69"/>
-      <c s="10" r="I69"/>
-    </row>
-    <row r="70">
-      <c s="5" r="A70">
+      <c s="10" r="H70"/>
+      <c s="3" r="I70"/>
+    </row>
+    <row r="71">
+      <c s="4" r="A71">
         <v>41730</v>
       </c>
-      <c s="14" r="B70"/>
-      <c t="s" s="14" r="C70">
+      <c s="14" r="B71"/>
+      <c t="s" s="14" r="C71">
         <v>135</v>
       </c>
-      <c t="s" s="14" r="D70">
+      <c t="s" s="14" r="D71">
         <v>136</v>
       </c>
-      <c t="s" s="10" r="E70">
-        <v>18</v>
-      </c>
-      <c t="s" s="14" r="F70">
+      <c t="s" s="10" r="E71">
+        <v>18</v>
+      </c>
+      <c t="s" s="14" r="F71">
         <v>137</v>
       </c>
-      <c t="s" s="3" r="G70">
+      <c t="s" s="3" r="G71">
         <v>120</v>
       </c>
-      <c s="14" r="H70"/>
-      <c s="14" r="I70"/>
-    </row>
-    <row r="71">
-      <c s="2" r="A71">
-        <v>41736</v>
-      </c>
-      <c s="2" r="B71"/>
-      <c t="s" s="10" r="C71">
-        <v>33</v>
-      </c>
-      <c t="s" s="10" r="D71">
-        <v>138</v>
-      </c>
-      <c t="s" s="10" r="E71">
-        <v>18</v>
-      </c>
-      <c t="s" s="10" r="F71">
-        <v>13</v>
-      </c>
-      <c t="s" s="10" r="G71">
-        <v>139</v>
-      </c>
-      <c s="10" r="H71"/>
-      <c s="10" r="I71"/>
+      <c s="14" r="H71"/>
+      <c s="3" r="I71"/>
     </row>
     <row r="72">
       <c s="2" r="A72">
-        <v>41737</v>
+        <v>41736</v>
       </c>
       <c s="2" r="B72"/>
       <c t="s" s="10" r="C72">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D72">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" s="10" r="E72">
         <v>18</v>
@@ -2639,64 +2707,64 @@
         <v>139</v>
       </c>
       <c s="10" r="H72"/>
-      <c s="10" r="I72"/>
+      <c s="3" r="I72"/>
     </row>
     <row r="73">
       <c s="2" r="A73">
-        <v>41742</v>
+        <v>41737</v>
       </c>
       <c s="2" r="B73"/>
       <c t="s" s="10" r="C73">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D73">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" s="10" r="E73">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F73">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G73">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c s="10" r="H73"/>
-      <c s="10" r="I73"/>
+      <c s="3" r="I73"/>
     </row>
     <row r="74">
       <c s="2" r="A74">
-        <v>41744</v>
+        <v>41742</v>
       </c>
       <c s="2" r="B74"/>
       <c t="s" s="10" r="C74">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" s="10" r="D74">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" s="10" r="E74">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F74">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c t="s" s="10" r="G74">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c s="10" r="H74"/>
-      <c s="10" r="I74"/>
+      <c s="3" r="I74"/>
     </row>
     <row r="75">
       <c s="2" r="A75">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c s="2" r="B75"/>
       <c t="s" s="10" r="C75">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c t="s" s="10" r="D75">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" s="10" r="E75">
         <v>18</v>
@@ -2705,21 +2773,21 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G75">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c s="10" r="H75"/>
-      <c s="10" r="I75"/>
+      <c s="3" r="I75"/>
     </row>
     <row r="76">
       <c s="2" r="A76">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c s="2" r="B76"/>
       <c t="s" s="10" r="C76">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D76">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" s="10" r="E76">
         <v>18</v>
@@ -2731,53 +2799,53 @@
         <v>14</v>
       </c>
       <c s="10" r="H76"/>
-      <c s="10" r="I76"/>
+      <c s="3" r="I76"/>
     </row>
     <row r="77">
       <c s="2" r="A77">
-        <v>41754</v>
-      </c>
-      <c s="14" r="B77"/>
-      <c t="s" s="14" r="C77">
-        <v>149</v>
-      </c>
-      <c t="s" s="14" r="D77">
-        <v>150</v>
+        <v>41747</v>
+      </c>
+      <c s="2" r="B77"/>
+      <c t="s" s="10" r="C77">
+        <v>33</v>
+      </c>
+      <c t="s" s="10" r="D77">
+        <v>148</v>
       </c>
       <c t="s" s="10" r="E77">
         <v>18</v>
       </c>
-      <c t="s" s="14" r="F77">
-        <v>151</v>
-      </c>
-      <c t="s" s="3" r="G77">
-        <v>152</v>
-      </c>
-      <c s="14" r="H77"/>
-      <c s="14" r="I77"/>
+      <c t="s" s="10" r="F77">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G77">
+        <v>14</v>
+      </c>
+      <c s="10" r="H77"/>
+      <c s="3" r="I77"/>
     </row>
     <row r="78">
       <c s="2" r="A78">
-        <v>41755</v>
-      </c>
-      <c s="2" r="B78"/>
-      <c t="s" s="10" r="C78">
-        <v>153</v>
-      </c>
-      <c t="s" s="10" r="D78">
-        <v>154</v>
+        <v>41754</v>
+      </c>
+      <c s="14" r="B78"/>
+      <c t="s" s="14" r="C78">
+        <v>149</v>
+      </c>
+      <c t="s" s="14" r="D78">
+        <v>150</v>
       </c>
       <c t="s" s="10" r="E78">
         <v>18</v>
       </c>
-      <c t="s" s="10" r="F78">
-        <v>67</v>
-      </c>
-      <c t="s" s="10" r="G78">
-        <v>68</v>
-      </c>
-      <c s="10" r="H78"/>
-      <c s="10" r="I78"/>
+      <c t="s" s="14" r="F78">
+        <v>151</v>
+      </c>
+      <c t="s" s="3" r="G78">
+        <v>152</v>
+      </c>
+      <c s="14" r="H78"/>
+      <c s="3" r="I78"/>
     </row>
     <row r="79">
       <c s="2" r="A79">
@@ -2785,33 +2853,33 @@
       </c>
       <c s="2" r="B79"/>
       <c t="s" s="10" r="C79">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" s="10" r="D79">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" s="10" r="E79">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F79">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c t="s" s="10" r="G79">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c s="10" r="H79"/>
-      <c s="10" r="I79"/>
+      <c s="3" r="I79"/>
     </row>
     <row r="80">
       <c s="2" r="A80">
-        <v>41756</v>
+        <v>41755</v>
       </c>
       <c s="2" r="B80"/>
       <c t="s" s="10" r="C80">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c t="s" s="10" r="D80">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" s="10" r="E80">
         <v>18</v>
@@ -2820,10 +2888,10 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G80">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c s="10" r="H80"/>
-      <c s="10" r="I80"/>
+      <c s="3" r="I80"/>
     </row>
     <row r="81">
       <c s="2" r="A81">
@@ -2834,7 +2902,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D81">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" s="10" r="E81">
         <v>18</v>
@@ -2846,18 +2914,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H81"/>
-      <c s="10" r="I81"/>
+      <c s="3" r="I81"/>
     </row>
     <row r="82">
       <c s="2" r="A82">
-        <v>41757</v>
+        <v>41756</v>
       </c>
       <c s="2" r="B82"/>
       <c t="s" s="10" r="C82">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D82">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" s="10" r="E82">
         <v>18</v>
@@ -2869,7 +2937,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H82"/>
-      <c s="10" r="I82"/>
+      <c s="3" r="I82"/>
     </row>
     <row r="83">
       <c s="2" r="A83">
@@ -2877,68 +2945,68 @@
       </c>
       <c s="2" r="B83"/>
       <c t="s" s="10" r="C83">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D83">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" s="10" r="E83">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c t="s" s="10" r="F83">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G83">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c s="10" r="H83"/>
-      <c s="10" r="I83"/>
+      <c s="3" r="I83"/>
     </row>
     <row r="84">
       <c s="2" r="A84">
-        <v>41759</v>
+        <v>41757</v>
       </c>
       <c s="2" r="B84"/>
       <c t="s" s="10" r="C84">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c t="s" s="10" r="D84">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" s="10" r="E84">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F84">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c t="s" s="10" r="G84">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c s="10" r="H84"/>
-      <c s="10" r="I84"/>
+      <c s="3" r="I84"/>
     </row>
     <row r="85">
       <c s="2" r="A85">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c s="2" r="B85"/>
       <c t="s" s="10" r="C85">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D85">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" s="10" r="E85">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F85">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G85">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c s="10" r="H85"/>
-      <c s="10" r="I85"/>
+      <c s="3" r="I85"/>
     </row>
     <row r="86">
       <c s="2" r="A86">
@@ -2946,33 +3014,33 @@
       </c>
       <c s="2" r="B86"/>
       <c t="s" s="10" r="C86">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c t="s" s="10" r="D86">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" s="10" r="E86">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F86">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c t="s" s="10" r="G86">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c s="10" r="H86"/>
-      <c s="10" r="I86"/>
+      <c s="3" r="I86"/>
     </row>
     <row r="87">
       <c s="2" r="A87">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c s="2" r="B87"/>
       <c t="s" s="10" r="C87">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D87">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" s="10" r="E87">
         <v>18</v>
@@ -2984,7 +3052,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H87"/>
-      <c s="10" r="I87"/>
+      <c s="3" r="I87"/>
     </row>
     <row r="88">
       <c s="2" r="A88">
@@ -2995,7 +3063,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D88">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" s="10" r="E88">
         <v>18</v>
@@ -3007,18 +3075,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H88"/>
-      <c s="10" r="I88"/>
+      <c s="3" r="I88"/>
     </row>
     <row r="89">
       <c s="2" r="A89">
-        <v>41762</v>
+        <v>41761</v>
       </c>
       <c s="2" r="B89"/>
       <c t="s" s="10" r="C89">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D89">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" s="10" r="E89">
         <v>18</v>
@@ -3030,64 +3098,64 @@
         <v>14</v>
       </c>
       <c s="10" r="H89"/>
-      <c s="10" r="I89"/>
+      <c s="3" r="I89"/>
     </row>
     <row r="90">
       <c s="2" r="A90">
-        <v>41763</v>
-      </c>
-      <c s="14" r="B90"/>
-      <c t="s" s="14" r="C90">
-        <v>174</v>
-      </c>
-      <c t="s" s="14" r="D90">
-        <v>175</v>
+        <v>41762</v>
+      </c>
+      <c s="2" r="B90"/>
+      <c t="s" s="10" r="C90">
+        <v>33</v>
+      </c>
+      <c t="s" s="10" r="D90">
+        <v>173</v>
       </c>
       <c t="s" s="10" r="E90">
         <v>18</v>
       </c>
-      <c t="s" s="14" r="F90">
-        <v>151</v>
-      </c>
-      <c t="s" s="3" r="G90">
-        <v>152</v>
-      </c>
-      <c s="14" r="H90"/>
-      <c s="14" r="I90"/>
+      <c t="s" s="10" r="F90">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G90">
+        <v>14</v>
+      </c>
+      <c s="10" r="H90"/>
+      <c s="3" r="I90"/>
     </row>
     <row r="91">
       <c s="2" r="A91">
         <v>41763</v>
       </c>
-      <c s="2" r="B91"/>
-      <c t="s" s="10" r="C91">
-        <v>33</v>
-      </c>
-      <c t="s" s="10" r="D91">
-        <v>176</v>
+      <c s="14" r="B91"/>
+      <c t="s" s="14" r="C91">
+        <v>174</v>
+      </c>
+      <c t="s" s="14" r="D91">
+        <v>175</v>
       </c>
       <c t="s" s="10" r="E91">
         <v>18</v>
       </c>
-      <c t="s" s="10" r="F91">
-        <v>13</v>
-      </c>
-      <c t="s" s="10" r="G91">
-        <v>14</v>
-      </c>
-      <c s="10" r="H91"/>
-      <c s="10" r="I91"/>
+      <c t="s" s="14" r="F91">
+        <v>151</v>
+      </c>
+      <c t="s" s="3" r="G91">
+        <v>152</v>
+      </c>
+      <c s="14" r="H91"/>
+      <c s="3" r="I91"/>
     </row>
     <row r="92">
       <c s="2" r="A92">
-        <v>41764</v>
+        <v>41763</v>
       </c>
       <c s="2" r="B92"/>
       <c t="s" s="10" r="C92">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D92">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" s="10" r="E92">
         <v>18</v>
@@ -3096,23 +3164,21 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G92">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c s="10" r="H92"/>
-      <c s="10" r="I92"/>
+      <c s="3" r="I92"/>
     </row>
     <row r="93">
       <c s="2" r="A93">
         <v>41764</v>
       </c>
-      <c s="2" r="B93">
-        <v>41784</v>
-      </c>
+      <c s="2" r="B93"/>
       <c t="s" s="10" r="C93">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" s="10" r="D93">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" s="10" r="E93">
         <v>18</v>
@@ -3121,21 +3187,23 @@
         <v>13</v>
       </c>
       <c t="s" s="10" r="G93">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c s="10" r="H93"/>
-      <c s="10" r="I93"/>
+      <c s="3" r="I93"/>
     </row>
     <row r="94">
       <c s="2" r="A94">
-        <v>41766</v>
-      </c>
-      <c s="2" r="B94"/>
+        <v>41764</v>
+      </c>
+      <c s="2" r="B94">
+        <v>41784</v>
+      </c>
       <c t="s" s="10" r="C94">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c t="s" s="10" r="D94">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" s="10" r="E94">
         <v>18</v>
@@ -3147,7 +3215,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H94"/>
-      <c s="10" r="I94"/>
+      <c s="3" r="I94"/>
     </row>
     <row r="95">
       <c s="2" r="A95">
@@ -3158,7 +3226,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D95">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" s="10" r="E95">
         <v>18</v>
@@ -3170,7 +3238,7 @@
         <v>14</v>
       </c>
       <c s="10" r="H95"/>
-      <c s="10" r="I95"/>
+      <c s="3" r="I95"/>
     </row>
     <row r="96">
       <c s="2" r="A96">
@@ -3181,7 +3249,7 @@
         <v>33</v>
       </c>
       <c t="s" s="10" r="D96">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" s="10" r="E96">
         <v>18</v>
@@ -3193,18 +3261,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H96"/>
-      <c s="10" r="I96"/>
+      <c s="3" r="I96"/>
     </row>
     <row r="97">
       <c s="2" r="A97">
-        <v>41770</v>
+        <v>41766</v>
       </c>
       <c s="2" r="B97"/>
       <c t="s" s="10" r="C97">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D97">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" s="10" r="E97">
         <v>18</v>
@@ -3216,41 +3284,39 @@
         <v>14</v>
       </c>
       <c s="10" r="H97"/>
-      <c s="10" r="I97"/>
+      <c s="3" r="I97"/>
     </row>
     <row r="98">
       <c s="2" r="A98">
-        <v>41774</v>
+        <v>41768</v>
       </c>
       <c s="2" r="B98"/>
       <c t="s" s="10" r="C98">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c t="s" s="10" r="D98">
         <v>186</v>
       </c>
       <c t="s" s="10" r="E98">
-        <v>18</v>
-      </c>
-      <c t="s" s="10" r="F98">
-        <v>13</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c s="10" r="F98"/>
       <c t="s" s="10" r="G98">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c s="10" r="H98"/>
-      <c s="10" r="I98"/>
+      <c s="3" r="I98"/>
     </row>
     <row r="99">
       <c s="2" r="A99">
-        <v>41774</v>
+        <v>41770</v>
       </c>
       <c s="2" r="B99"/>
       <c t="s" s="10" r="C99">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D99">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" s="10" r="E99">
         <v>18</v>
@@ -3262,41 +3328,41 @@
         <v>14</v>
       </c>
       <c s="10" r="H99"/>
-      <c s="10" r="I99"/>
+      <c s="3" r="I99"/>
     </row>
     <row r="100">
       <c s="2" r="A100">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c s="2" r="B100"/>
       <c t="s" s="10" r="C100">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D100">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" s="10" r="E100">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F100">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c t="s" s="10" r="G100">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c s="10" r="H100"/>
-      <c s="10" r="I100"/>
+      <c s="3" r="I100"/>
     </row>
     <row r="101">
       <c s="2" r="A101">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c s="2" r="B101"/>
       <c t="s" s="10" r="C101">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D101">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" s="10" r="E101">
         <v>18</v>
@@ -3308,41 +3374,41 @@
         <v>14</v>
       </c>
       <c s="10" r="H101"/>
-      <c s="10" r="I101"/>
+      <c s="3" r="I101"/>
     </row>
     <row r="102">
       <c s="2" r="A102">
-        <v>41776</v>
+        <v>41775</v>
       </c>
       <c s="2" r="B102"/>
       <c t="s" s="10" r="C102">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c t="s" s="10" r="D102">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" s="10" r="E102">
         <v>18</v>
       </c>
       <c t="s" s="10" r="F102">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c t="s" s="10" r="G102">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c s="10" r="H102"/>
-      <c s="10" r="I102"/>
+      <c s="3" r="I102"/>
     </row>
     <row r="103">
       <c s="2" r="A103">
-        <v>41776</v>
+        <v>41775</v>
       </c>
       <c s="2" r="B103"/>
       <c t="s" s="10" r="C103">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D103">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" s="10" r="E103">
         <v>18</v>
@@ -3354,18 +3420,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H103"/>
-      <c s="10" r="I103"/>
+      <c s="3" r="I103"/>
     </row>
     <row r="104">
       <c s="2" r="A104">
-        <v>41777</v>
+        <v>41776</v>
       </c>
       <c s="2" r="B104"/>
       <c t="s" s="10" r="C104">
         <v>33</v>
       </c>
       <c t="s" s="10" r="D104">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" s="10" r="E104">
         <v>18</v>
@@ -3377,18 +3443,18 @@
         <v>14</v>
       </c>
       <c s="10" r="H104"/>
-      <c s="10" r="I104"/>
+      <c s="3" r="I104"/>
     </row>
     <row r="105">
       <c s="2" r="A105">
-        <v>41778</v>
+        <v>41776</v>
       </c>
       <c s="2" r="B105"/>
       <c t="s" s="10" r="C105">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D105">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" s="10" r="E105">
         <v>18</v>
@@ -3400,41 +3466,41 @@
         <v>14</v>
       </c>
       <c s="10" r="H105"/>
-      <c s="10" r="I105"/>
+      <c s="3" r="I105"/>
     </row>
     <row r="106">
       <c s="2" r="A106">
-        <v>41783</v>
+        <v>41777</v>
       </c>
       <c s="2" r="B106"/>
       <c t="s" s="10" r="C106">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c t="s" s="10" r="D106">
         <v>197</v>
       </c>
       <c t="s" s="10" r="E106">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c t="s" s="10" r="F106">
         <v>13</v>
       </c>
       <c t="s" s="10" r="G106">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c s="10" r="H106"/>
-      <c s="10" r="I106"/>
+      <c s="3" r="I106"/>
     </row>
     <row r="107">
       <c s="2" r="A107">
-        <v>41788</v>
+        <v>41778</v>
       </c>
       <c s="2" r="B107"/>
       <c t="s" s="10" r="C107">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" s="10" r="D107">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" s="10" r="E107">
         <v>18</v>
@@ -3446,83 +3512,478 @@
         <v>14</v>
       </c>
       <c s="10" r="H107"/>
-      <c s="10" r="I107"/>
+      <c s="3" r="I107"/>
     </row>
     <row r="108">
       <c s="2" r="A108">
-        <v>41812</v>
+        <v>41783</v>
       </c>
       <c s="2" r="B108"/>
       <c t="s" s="10" r="C108">
+        <v>200</v>
+      </c>
+      <c t="s" s="10" r="D108">
+        <v>201</v>
+      </c>
+      <c t="s" s="10" r="E108">
         <v>202</v>
       </c>
-      <c t="s" s="10" r="D108">
+      <c t="s" s="10" r="F108">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G108">
         <v>203</v>
       </c>
-      <c t="s" s="10" r="E108">
-        <v>204</v>
-      </c>
-      <c t="s" s="10" r="F108">
-        <v>205</v>
-      </c>
-      <c t="s" s="10" r="G108">
-        <v>14</v>
-      </c>
       <c s="10" r="H108"/>
-      <c s="10" r="I108"/>
+      <c s="3" r="I108"/>
     </row>
     <row r="109">
       <c s="2" r="A109">
-        <v>41864</v>
+        <v>41788</v>
       </c>
       <c s="2" r="B109"/>
       <c t="s" s="10" r="C109">
+        <v>204</v>
+      </c>
+      <c t="s" s="10" r="D109">
+        <v>205</v>
+      </c>
+      <c t="s" s="10" r="E109">
+        <v>18</v>
+      </c>
+      <c t="s" s="10" r="F109">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G109">
+        <v>14</v>
+      </c>
+      <c s="10" r="H109"/>
+      <c s="3" r="I109"/>
+    </row>
+    <row r="110">
+      <c s="2" r="A110">
+        <v>41804</v>
+      </c>
+      <c s="2" r="B110"/>
+      <c t="s" s="10" r="C110">
         <v>206</v>
       </c>
-      <c t="s" s="10" r="D109">
+      <c t="s" s="10" r="D110">
         <v>207</v>
       </c>
-      <c t="s" s="10" r="E109">
-        <v>18</v>
-      </c>
-      <c t="s" s="10" r="F109">
+      <c t="s" s="10" r="E110">
         <v>208</v>
       </c>
-      <c t="s" s="10" r="G109">
+      <c t="s" s="10" r="F110">
         <v>209</v>
       </c>
-      <c s="10" r="H109"/>
-      <c s="10" r="I109"/>
-    </row>
-    <row r="110">
-      <c s="2" r="A110"/>
-      <c s="2" r="B110"/>
-      <c s="10" r="C110"/>
-      <c s="10" r="D110"/>
-      <c s="10" r="E110"/>
-      <c s="10" r="F110"/>
-      <c s="10" r="G110"/>
+      <c t="s" s="10" r="G110">
+        <v>14</v>
+      </c>
       <c s="10" r="H110"/>
-      <c s="10" r="I110"/>
+      <c s="3" r="I110"/>
     </row>
     <row r="111">
-      <c s="2" r="A111"/>
+      <c s="2" r="A111">
+        <v>41812</v>
+      </c>
       <c s="2" r="B111"/>
-      <c s="10" r="C111"/>
-      <c s="10" r="D111"/>
-      <c s="10" r="E111"/>
-      <c s="10" r="F111"/>
-      <c s="10" r="G111"/>
+      <c t="s" s="10" r="C111">
+        <v>210</v>
+      </c>
+      <c t="s" s="10" r="D111">
+        <v>211</v>
+      </c>
+      <c t="s" s="10" r="E111">
+        <v>212</v>
+      </c>
+      <c t="s" s="10" r="F111">
+        <v>213</v>
+      </c>
+      <c t="s" s="10" r="G111">
+        <v>14</v>
+      </c>
       <c s="10" r="H111"/>
-      <c s="10" r="I111"/>
+      <c s="3" r="I111"/>
+    </row>
+    <row r="112">
+      <c s="2" r="A112">
+        <v>41813</v>
+      </c>
+      <c s="2" r="B112"/>
+      <c t="s" s="10" r="C112">
+        <v>214</v>
+      </c>
+      <c t="s" s="10" r="D112">
+        <v>215</v>
+      </c>
+      <c t="s" s="10" r="E112">
+        <v>18</v>
+      </c>
+      <c t="s" s="10" r="F112">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G112">
+        <v>216</v>
+      </c>
+      <c s="10" r="H112"/>
+      <c s="3" r="I112"/>
+    </row>
+    <row r="113">
+      <c s="2" r="A113">
+        <v>41845</v>
+      </c>
+      <c s="2" r="B113"/>
+      <c t="s" s="10" r="C113">
+        <v>217</v>
+      </c>
+      <c t="s" s="10" r="D113">
+        <v>218</v>
+      </c>
+      <c t="s" s="10" r="E113">
+        <v>219</v>
+      </c>
+      <c t="s" s="10" r="F113">
+        <v>220</v>
+      </c>
+      <c t="s" s="10" r="G113">
+        <v>221</v>
+      </c>
+      <c s="10" r="H113"/>
+      <c s="3" r="I113"/>
+    </row>
+    <row r="114">
+      <c s="2" r="A114">
+        <v>41851</v>
+      </c>
+      <c s="2" r="B114">
+        <v>41897</v>
+      </c>
+      <c t="s" s="10" r="C114">
+        <v>222</v>
+      </c>
+      <c t="s" s="10" r="D114">
+        <v>223</v>
+      </c>
+      <c t="s" s="10" r="E114">
+        <v>224</v>
+      </c>
+      <c t="s" s="10" r="F114">
+        <v>225</v>
+      </c>
+      <c t="s" s="10" r="G114">
+        <v>226</v>
+      </c>
+      <c s="10" r="H114"/>
+      <c s="3" r="I114"/>
+    </row>
+    <row r="115">
+      <c s="2" r="A115">
+        <v>41861</v>
+      </c>
+      <c s="2" r="B115"/>
+      <c t="s" s="10" r="C115">
+        <v>227</v>
+      </c>
+      <c t="s" s="10" r="D115">
+        <v>228</v>
+      </c>
+      <c t="s" s="10" r="E115">
+        <v>229</v>
+      </c>
+      <c t="s" s="10" r="F115">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G115">
+        <v>230</v>
+      </c>
+      <c s="10" r="H115"/>
+      <c s="3" r="I115"/>
+    </row>
+    <row r="116">
+      <c s="2" r="A116">
+        <v>41864</v>
+      </c>
+      <c s="2" r="B116"/>
+      <c t="s" s="10" r="C116">
+        <v>231</v>
+      </c>
+      <c t="s" s="10" r="D116">
+        <v>232</v>
+      </c>
+      <c t="s" s="10" r="E116">
+        <v>18</v>
+      </c>
+      <c t="s" s="10" r="F116">
+        <v>233</v>
+      </c>
+      <c t="s" s="10" r="G116">
+        <v>234</v>
+      </c>
+      <c s="10" r="H116"/>
+      <c s="3" r="I116"/>
+    </row>
+    <row r="117">
+      <c s="2" r="A117">
+        <v>41875</v>
+      </c>
+      <c s="2" r="B117"/>
+      <c t="s" s="10" r="C117">
+        <v>42</v>
+      </c>
+      <c t="s" s="10" r="D117">
+        <v>235</v>
+      </c>
+      <c t="s" s="10" r="E117">
+        <v>44</v>
+      </c>
+      <c t="s" s="10" r="F117">
+        <v>13</v>
+      </c>
+      <c t="s" s="10" r="G117">
+        <v>14</v>
+      </c>
+      <c s="10" r="H117"/>
+      <c s="10" r="I117"/>
+    </row>
+    <row r="118">
+      <c s="2" r="A118"/>
+      <c s="2" r="B118"/>
+      <c s="10" r="C118"/>
+      <c s="10" r="D118"/>
+      <c s="10" r="E118"/>
+      <c s="10" r="F118"/>
+      <c s="10" r="G118"/>
+      <c s="10" r="H118"/>
+      <c s="10" r="I118"/>
+    </row>
+    <row r="119">
+      <c s="2" r="A119"/>
+      <c s="2" r="B119"/>
+      <c s="10" r="C119"/>
+      <c s="10" r="D119"/>
+      <c s="10" r="E119"/>
+      <c s="10" r="F119"/>
+      <c s="10" r="G119"/>
+      <c s="10" r="H119"/>
+      <c s="10" r="I119"/>
+    </row>
+    <row r="120">
+      <c s="2" r="A120"/>
+      <c s="2" r="B120"/>
+      <c s="10" r="C120"/>
+      <c s="10" r="D120"/>
+      <c s="10" r="E120"/>
+      <c s="10" r="F120"/>
+      <c s="10" r="G120"/>
+      <c s="10" r="H120"/>
+      <c s="10" r="I120"/>
+    </row>
+    <row r="121">
+      <c s="2" r="A121"/>
+      <c s="2" r="B121"/>
+      <c s="10" r="C121"/>
+      <c s="10" r="D121"/>
+      <c s="10" r="E121"/>
+      <c s="10" r="F121"/>
+      <c s="10" r="G121"/>
+      <c s="10" r="H121"/>
+      <c s="10" r="I121"/>
+    </row>
+    <row r="122">
+      <c s="2" r="A122"/>
+      <c s="2" r="B122"/>
+      <c s="10" r="C122"/>
+      <c s="10" r="D122"/>
+      <c s="10" r="E122"/>
+      <c s="10" r="F122"/>
+      <c s="10" r="G122"/>
+      <c s="10" r="H122"/>
+      <c s="10" r="I122"/>
+    </row>
+    <row r="123">
+      <c s="2" r="A123"/>
+      <c s="2" r="B123"/>
+      <c s="10" r="C123"/>
+      <c s="10" r="D123"/>
+      <c s="10" r="E123"/>
+      <c s="10" r="F123"/>
+      <c s="10" r="G123"/>
+      <c s="10" r="H123"/>
+      <c s="10" r="I123"/>
+    </row>
+    <row r="124">
+      <c s="2" r="A124"/>
+      <c s="2" r="B124"/>
+      <c s="10" r="C124"/>
+      <c s="10" r="D124"/>
+      <c s="10" r="E124"/>
+      <c s="10" r="F124"/>
+      <c s="10" r="G124"/>
+      <c s="10" r="H124"/>
+      <c s="10" r="I124"/>
+    </row>
+    <row r="125">
+      <c s="2" r="A125"/>
+      <c s="2" r="B125"/>
+      <c s="10" r="C125"/>
+      <c s="10" r="D125"/>
+      <c s="10" r="E125"/>
+      <c s="10" r="F125"/>
+      <c s="10" r="G125"/>
+      <c s="10" r="H125"/>
+      <c s="10" r="I125"/>
+    </row>
+    <row r="126">
+      <c s="2" r="A126"/>
+      <c s="2" r="B126"/>
+      <c s="10" r="C126"/>
+      <c s="10" r="D126"/>
+      <c s="10" r="E126"/>
+      <c s="10" r="F126"/>
+      <c s="10" r="G126"/>
+      <c s="10" r="H126"/>
+      <c s="10" r="I126"/>
+    </row>
+    <row r="127">
+      <c s="2" r="A127"/>
+      <c s="2" r="B127"/>
+      <c s="10" r="C127"/>
+      <c s="10" r="D127"/>
+      <c s="10" r="E127"/>
+      <c s="10" r="F127"/>
+      <c s="10" r="G127"/>
+      <c s="10" r="H127"/>
+      <c s="10" r="I127"/>
+    </row>
+    <row r="128">
+      <c s="2" r="A128"/>
+      <c s="2" r="B128"/>
+      <c s="10" r="C128"/>
+      <c s="10" r="D128"/>
+      <c s="10" r="E128"/>
+      <c s="10" r="F128"/>
+      <c s="10" r="G128"/>
+      <c s="10" r="H128"/>
+      <c s="10" r="I128"/>
+    </row>
+    <row r="129">
+      <c s="2" r="A129"/>
+      <c s="2" r="B129"/>
+      <c s="10" r="C129"/>
+      <c s="10" r="D129"/>
+      <c s="10" r="E129"/>
+      <c s="10" r="F129"/>
+      <c s="10" r="G129"/>
+      <c s="10" r="H129"/>
+      <c s="10" r="I129"/>
+    </row>
+    <row r="130">
+      <c s="2" r="A130"/>
+      <c s="2" r="B130"/>
+      <c s="10" r="C130"/>
+      <c s="10" r="D130"/>
+      <c s="10" r="E130"/>
+      <c s="10" r="F130"/>
+      <c s="10" r="G130"/>
+      <c s="10" r="H130"/>
+      <c s="10" r="I130"/>
+    </row>
+    <row r="131">
+      <c s="2" r="A131"/>
+      <c s="2" r="B131"/>
+      <c s="10" r="C131"/>
+      <c s="10" r="D131"/>
+      <c s="10" r="E131"/>
+      <c s="10" r="F131"/>
+      <c s="10" r="G131"/>
+      <c s="10" r="H131"/>
+      <c s="10" r="I131"/>
+    </row>
+    <row r="132">
+      <c s="2" r="A132"/>
+      <c s="2" r="B132"/>
+      <c s="10" r="C132"/>
+      <c s="10" r="D132"/>
+      <c s="10" r="E132"/>
+      <c s="10" r="F132"/>
+      <c s="10" r="G132"/>
+      <c s="10" r="H132"/>
+      <c s="10" r="I132"/>
+    </row>
+    <row r="133">
+      <c s="2" r="A133"/>
+      <c s="2" r="B133"/>
+      <c s="10" r="C133"/>
+      <c s="10" r="D133"/>
+      <c s="10" r="E133"/>
+      <c s="10" r="F133"/>
+      <c s="10" r="G133"/>
+      <c s="10" r="H133"/>
+      <c s="10" r="I133"/>
+    </row>
+    <row r="134">
+      <c s="2" r="A134"/>
+      <c s="2" r="B134"/>
+      <c s="10" r="C134"/>
+      <c s="10" r="D134"/>
+      <c s="10" r="E134"/>
+      <c s="10" r="F134"/>
+      <c s="10" r="G134"/>
+      <c s="10" r="H134"/>
+      <c s="10" r="I134"/>
+    </row>
+    <row r="135">
+      <c s="2" r="A135"/>
+      <c s="2" r="B135"/>
+      <c s="10" r="C135"/>
+      <c s="10" r="D135"/>
+      <c s="10" r="E135"/>
+      <c s="10" r="F135"/>
+      <c s="10" r="G135"/>
+      <c s="10" r="H135"/>
+      <c s="10" r="I135"/>
+    </row>
+    <row r="136">
+      <c s="2" r="A136"/>
+      <c s="2" r="B136"/>
+      <c s="10" r="C136"/>
+      <c s="10" r="D136"/>
+      <c s="10" r="E136"/>
+      <c s="10" r="F136"/>
+      <c s="10" r="G136"/>
+      <c s="10" r="H136"/>
+      <c s="10" r="I136"/>
+    </row>
+    <row r="137">
+      <c s="2" r="A137"/>
+      <c s="2" r="B137"/>
+      <c s="10" r="C137"/>
+      <c s="10" r="D137"/>
+      <c s="10" r="E137"/>
+      <c s="10" r="F137"/>
+      <c s="10" r="G137"/>
+      <c s="10" r="H137"/>
+      <c s="10" r="I137"/>
+    </row>
+    <row r="138">
+      <c s="2" r="A138"/>
+      <c s="2" r="B138"/>
+      <c s="10" r="C138"/>
+      <c s="10" r="D138"/>
+      <c s="10" r="E138"/>
+      <c s="10" r="F138"/>
+      <c s="10" r="G138"/>
+      <c s="10" r="H138"/>
+      <c s="10" r="I138"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation showErrorMessage="1" sqref="I2:I10" allowBlank="1" prompt="Click and enter a value from the list of items" type="list" showInputMessage="1">
+    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="A2:A10 B3:B10" allowBlank="1" type="custom">
+      <formula1>ISNUMBER(DATEVALUE(A2))</formula1>
+    </dataValidation>
+    <dataValidation showErrorMessage="1" sqref="I2:I116" allowBlank="1" prompt="Click and enter a value from the list of items" type="list" showInputMessage="1">
       <formula1>"title, era,"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" showErrorMessage="1" sqref="A3:B10" allowBlank="1" type="custom">
-      <formula1>ISNUMBER(DATEVALUE(A3))</formula1>
     </dataValidation>
   </dataValidations>
   <legacyDrawing r:id="rId2"/>
